--- a/班级文件/14社团参与情况.xlsx
+++ b/班级文件/14社团参与情况.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wty\Desktop\班主任期末资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wty\Desktop\2020-2021第一学期 班主任期末资料\班主任资料模板2020-2021（1）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$18</definedName>
     <definedName name="性别">[1]字典!$B$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>19中职计算机维修与应用1班</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>窦莉香</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -135,14 +127,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>19中职计算机维修与应用1班</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>19中职计算机维修与应用1班</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -246,10 +230,6 @@
     <t>沙相志</t>
   </si>
   <si>
-    <t>沈家辉</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>陈雨宣</t>
   </si>
   <si>
@@ -264,10 +244,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>19中职计算机维修与应用1班</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>轮滑社团</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -278,6 +254,9 @@
   <si>
     <t>鬼步舞社团</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>19高职计应 1 班</t>
   </si>
 </sst>
 </file>
@@ -450,15 +429,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,14 +805,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -859,17 +838,17 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -877,17 +856,17 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -895,16 +874,16 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="4"/>
@@ -913,197 +892,197 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>26</v>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>30</v>
+      <c r="B11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>23</v>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>33</v>
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>35</v>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>40</v>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1111,17 +1090,17 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1129,17 +1108,17 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>26</v>
+      <c r="B18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1147,17 +1126,17 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>55</v>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1165,17 +1144,17 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>26</v>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1183,17 +1162,17 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>56</v>
+      <c r="B21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1201,17 +1180,17 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1219,17 +1198,17 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>57</v>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1237,17 +1216,17 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>53</v>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1255,58 +1234,22 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>28</v>
+      <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F19">
+  <autoFilter ref="A1:F18">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -1314,7 +1257,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D27">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D25">
       <formula1>性别</formula1>
     </dataValidation>
   </dataValidations>
